--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf2</t>
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H2">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I2">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J2">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N2">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O2">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P2">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q2">
-        <v>19.87998153196878</v>
+        <v>20.4836156269909</v>
       </c>
       <c r="R2">
-        <v>178.919833787719</v>
+        <v>184.352540642918</v>
       </c>
       <c r="S2">
-        <v>0.002952742553467542</v>
+        <v>0.004647536460805842</v>
       </c>
       <c r="T2">
-        <v>0.002952742553467542</v>
+        <v>0.004647536460805841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H3">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I3">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J3">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q3">
-        <v>82.24950339279823</v>
+        <v>98.56016636628979</v>
       </c>
       <c r="R3">
-        <v>740.245530535184</v>
+        <v>887.041497296608</v>
       </c>
       <c r="S3">
-        <v>0.01221639005443467</v>
+        <v>0.02236235902448987</v>
       </c>
       <c r="T3">
-        <v>0.01221639005443467</v>
+        <v>0.02236235902448986</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H4">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I4">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J4">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N4">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q4">
-        <v>217.05345201858</v>
+        <v>177.8914314075411</v>
       </c>
       <c r="R4">
-        <v>1953.48106816722</v>
+        <v>1601.02288266787</v>
       </c>
       <c r="S4">
-        <v>0.03223860963460441</v>
+        <v>0.04036186426199513</v>
       </c>
       <c r="T4">
-        <v>0.03223860963460441</v>
+        <v>0.04036186426199513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H5">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I5">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J5">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N5">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q5">
-        <v>58.23812637540323</v>
+        <v>43.81682399078133</v>
       </c>
       <c r="R5">
-        <v>524.143137378629</v>
+        <v>394.351415917032</v>
       </c>
       <c r="S5">
-        <v>0.008650017793343671</v>
+        <v>0.009941618257351754</v>
       </c>
       <c r="T5">
-        <v>0.00865001779334367</v>
+        <v>0.009941618257351754</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H6">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I6">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J6">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N6">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q6">
-        <v>250.5228676819926</v>
+        <v>119.4319871251549</v>
       </c>
       <c r="R6">
-        <v>2254.705809137933</v>
+        <v>1074.887884126394</v>
       </c>
       <c r="S6">
-        <v>0.03720976957809478</v>
+        <v>0.02709797551655152</v>
       </c>
       <c r="T6">
-        <v>0.03720976957809477</v>
+        <v>0.02709797551655152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N7">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O7">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P7">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q7">
-        <v>165.76655532242</v>
+        <v>142.53430763702</v>
       </c>
       <c r="R7">
-        <v>1491.89899790178</v>
+        <v>1282.80876873318</v>
       </c>
       <c r="S7">
-        <v>0.02462104710988469</v>
+        <v>0.03233967106792859</v>
       </c>
       <c r="T7">
-        <v>0.0246210471098847</v>
+        <v>0.03233967106792858</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q8">
         <v>685.8264346211201</v>
@@ -948,10 +948,10 @@
         <v>6172.43791159008</v>
       </c>
       <c r="S8">
-        <v>0.1018647273158788</v>
+        <v>0.1556074581133101</v>
       </c>
       <c r="T8">
-        <v>0.1018647273158788</v>
+        <v>0.1556074581133101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N9">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q9">
-        <v>1809.8710506396</v>
+        <v>1237.8494340043</v>
       </c>
       <c r="R9">
-        <v>16288.8394557564</v>
+        <v>11140.6449060387</v>
       </c>
       <c r="S9">
-        <v>0.2688173154949261</v>
+        <v>0.2808561965956</v>
       </c>
       <c r="T9">
-        <v>0.2688173154949261</v>
+        <v>0.2808561965956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>22.25574</v>
       </c>
       <c r="I10">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J10">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N10">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q10">
-        <v>485.6107930562201</v>
+        <v>304.89737671848</v>
       </c>
       <c r="R10">
-        <v>4370.49713750598</v>
+        <v>2744.07639046632</v>
       </c>
       <c r="S10">
-        <v>0.07212701132415081</v>
+        <v>0.06917829844629607</v>
       </c>
       <c r="T10">
-        <v>0.07212701132415081</v>
+        <v>0.06917829844629607</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>22.25574</v>
       </c>
       <c r="I11">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J11">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N11">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q11">
-        <v>2088.95127685894</v>
+        <v>831.0620500106602</v>
       </c>
       <c r="R11">
-        <v>18800.56149173046</v>
+        <v>7479.558450095941</v>
       </c>
       <c r="S11">
-        <v>0.3102686648567977</v>
+        <v>0.1885600300723856</v>
       </c>
       <c r="T11">
-        <v>0.3102686648567977</v>
+        <v>0.1885600300723856</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H12">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I12">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J12">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N12">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O12">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P12">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q12">
-        <v>6.667973530436999</v>
+        <v>8.331655421667779</v>
       </c>
       <c r="R12">
-        <v>60.011761773933</v>
+        <v>74.98489879501001</v>
       </c>
       <c r="S12">
-        <v>0.0009903836760137409</v>
+        <v>0.001890372923227911</v>
       </c>
       <c r="T12">
-        <v>0.0009903836760137414</v>
+        <v>0.00189037292322791</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H13">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I13">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J13">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q13">
-        <v>27.587425603632</v>
+        <v>40.08908189939556</v>
       </c>
       <c r="R13">
-        <v>248.286830432688</v>
+        <v>360.80173709456</v>
       </c>
       <c r="S13">
-        <v>0.004097517162652871</v>
+        <v>0.009095829232519274</v>
       </c>
       <c r="T13">
-        <v>0.004097517162652871</v>
+        <v>0.009095829232519274</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H14">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I14">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J14">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N14">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q14">
-        <v>72.80221414805999</v>
+        <v>72.35686003607222</v>
       </c>
       <c r="R14">
-        <v>655.21992733254</v>
+        <v>651.21174032465</v>
       </c>
       <c r="S14">
-        <v>0.01081319896378921</v>
+        <v>0.01641707945173308</v>
       </c>
       <c r="T14">
-        <v>0.01081319896378921</v>
+        <v>0.01641707945173308</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H15">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I15">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J15">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N15">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q15">
-        <v>19.533734702367</v>
+        <v>17.82237500502666</v>
       </c>
       <c r="R15">
-        <v>175.803612321303</v>
+        <v>160.40137504524</v>
       </c>
       <c r="S15">
-        <v>0.002901315053591632</v>
+        <v>0.004043726418341513</v>
       </c>
       <c r="T15">
-        <v>0.002901315053591633</v>
+        <v>0.004043726418341513</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H16">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I16">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J16">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N16">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q16">
-        <v>84.02823955275899</v>
+        <v>48.57863871164778</v>
       </c>
       <c r="R16">
-        <v>756.254155974831</v>
+        <v>437.2077484048301</v>
       </c>
       <c r="S16">
-        <v>0.01248058295332955</v>
+        <v>0.01102202847095035</v>
       </c>
       <c r="T16">
-        <v>0.01248058295332955</v>
+        <v>0.01102202847095035</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H17">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I17">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J17">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N17">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O17">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P17">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q17">
-        <v>20.83557104497533</v>
+        <v>18.27718361741501</v>
       </c>
       <c r="R17">
-        <v>187.520139404778</v>
+        <v>164.494652556735</v>
       </c>
       <c r="S17">
-        <v>0.003094674768754783</v>
+        <v>0.004146918142266369</v>
       </c>
       <c r="T17">
-        <v>0.003094674768754784</v>
+        <v>0.004146918142266368</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H18">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I18">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J18">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q18">
-        <v>86.20306656717867</v>
+        <v>87.94356869624001</v>
       </c>
       <c r="R18">
-        <v>775.827599104608</v>
+        <v>791.49211826616</v>
       </c>
       <c r="S18">
-        <v>0.01280360660712828</v>
+        <v>0.01995355456048465</v>
       </c>
       <c r="T18">
-        <v>0.01280360660712828</v>
+        <v>0.01995355456048464</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H19">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I19">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J19">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N19">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q19">
-        <v>227.48676163596</v>
+        <v>158.729514115475</v>
       </c>
       <c r="R19">
-        <v>2047.38085472364</v>
+        <v>1428.565627039275</v>
       </c>
       <c r="S19">
-        <v>0.03378825278850774</v>
+        <v>0.03601420851139239</v>
       </c>
       <c r="T19">
-        <v>0.03378825278850774</v>
+        <v>0.03601420851139239</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H20">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I20">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J20">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N20">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q20">
-        <v>61.03751241768867</v>
+        <v>39.09701061545999</v>
       </c>
       <c r="R20">
-        <v>549.337611759198</v>
+        <v>351.87309553914</v>
       </c>
       <c r="S20">
-        <v>0.009065806222389597</v>
+        <v>0.008870737747316164</v>
       </c>
       <c r="T20">
-        <v>0.009065806222389597</v>
+        <v>0.008870737747316164</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.932458</v>
+        <v>0.951285</v>
       </c>
       <c r="H21">
-        <v>2.797374</v>
+        <v>2.853855</v>
       </c>
       <c r="I21">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="J21">
-        <v>0.09775070647503985</v>
+        <v>0.09316448398568379</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N21">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q21">
-        <v>262.5649827483606</v>
+        <v>106.567141183945</v>
       </c>
       <c r="R21">
-        <v>2363.084844735246</v>
+        <v>959.1042706555052</v>
       </c>
       <c r="S21">
-        <v>0.03899836608825945</v>
+        <v>0.02417906502422422</v>
       </c>
       <c r="T21">
-        <v>0.03899836608825945</v>
+        <v>0.02417906502422422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.023536</v>
+      </c>
+      <c r="I22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>19.21315233333334</v>
+      </c>
+      <c r="N22">
+        <v>57.63945700000001</v>
+      </c>
+      <c r="O22">
+        <v>0.04451179209991234</v>
+      </c>
+      <c r="P22">
+        <v>0.04451179209991233</v>
+      </c>
+      <c r="Q22">
+        <v>6.555117695550224</v>
+      </c>
+      <c r="R22">
+        <v>58.99605925995201</v>
+      </c>
+      <c r="S22">
+        <v>0.001487293505683628</v>
+      </c>
+      <c r="T22">
+        <v>0.001487293505683628</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.023536</v>
+      </c>
+      <c r="I23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>92.44713066666667</v>
+      </c>
+      <c r="N23">
+        <v>277.341392</v>
+      </c>
+      <c r="O23">
+        <v>0.2141755495962477</v>
+      </c>
+      <c r="P23">
+        <v>0.2141755495962477</v>
+      </c>
+      <c r="Q23">
+        <v>31.54098877801245</v>
+      </c>
+      <c r="R23">
+        <v>283.868899002112</v>
+      </c>
+      <c r="S23">
+        <v>0.007156348665443834</v>
+      </c>
+      <c r="T23">
+        <v>0.007156348665443834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.023536</v>
+      </c>
+      <c r="I24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>166.8580016666666</v>
+      </c>
+      <c r="N24">
+        <v>500.5740049999999</v>
+      </c>
+      <c r="O24">
+        <v>0.3865658561145097</v>
+      </c>
+      <c r="P24">
+        <v>0.3865658561145097</v>
+      </c>
+      <c r="Q24">
+        <v>56.92839053129777</v>
+      </c>
+      <c r="R24">
+        <v>512.35551478168</v>
+      </c>
+      <c r="S24">
+        <v>0.01291650729378911</v>
+      </c>
+      <c r="T24">
+        <v>0.01291650729378911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.023536</v>
+      </c>
+      <c r="I25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>41.09915599999999</v>
+      </c>
+      <c r="N25">
+        <v>123.297468</v>
+      </c>
+      <c r="O25">
+        <v>0.09521587377309249</v>
+      </c>
+      <c r="P25">
+        <v>0.09521587377309249</v>
+      </c>
+      <c r="Q25">
+        <v>14.02215524520533</v>
+      </c>
+      <c r="R25">
+        <v>126.199397206848</v>
+      </c>
+      <c r="S25">
+        <v>0.003181492903786982</v>
+      </c>
+      <c r="T25">
+        <v>0.003181492903786982</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.023536</v>
+      </c>
+      <c r="I26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>112.0244103333333</v>
+      </c>
+      <c r="N26">
+        <v>336.073231</v>
+      </c>
+      <c r="O26">
+        <v>0.2595309284162377</v>
+      </c>
+      <c r="P26">
+        <v>0.2595309284162377</v>
+      </c>
+      <c r="Q26">
+        <v>38.22033895164623</v>
+      </c>
+      <c r="R26">
+        <v>343.983050564816</v>
+      </c>
+      <c r="S26">
+        <v>0.008671829332125972</v>
+      </c>
+      <c r="T26">
+        <v>0.008671829332125972</v>
       </c>
     </row>
   </sheetData>
